--- a/medicine/Psychotrope/Nescafé/Nescafé.xlsx
+++ b/medicine/Psychotrope/Nescafé/Nescafé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nescaf%C3%A9</t>
+          <t>Nescafé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nescafé est une marque de café instantané commercialisée par l'entreprise suisse Nestlé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nescaf%C3%A9</t>
+          <t>Nescafé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque est un mot-valise constitué à partir de Nestlé et de café.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nescaf%C3%A9</t>
+          <t>Nescafé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La naissance du café instantané
-Dans les années 1930, l'Office brésilien du café cherche à écouler ses stocks de grains de café brut. Il demande à Nestlé de développer des « cubes de café » qui par simple adjonction d'eau chaude devrait permettre d'avoir instantanément un café. 
-En Suisse, une équipe est créée avec Paul Dutoit[1] et le chimiste Max Morgenthaler[2] (1901-1980). Les premiers essais ne sont pas concluants et la direction générale demande de les cesser. Mais Max Morgenthaler poursuit ses recherches dans sa maison. Il trouve enfin la formule : le grain est torréfié, moulu et passé dans de grosses cafetières, puis déshydraté. On ajoute ensuite des hydrates de carbone sans goût pour faciliter le séchage.
+          <t>La naissance du café instantané</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1930, l'Office brésilien du café cherche à écouler ses stocks de grains de café brut. Il demande à Nestlé de développer des « cubes de café » qui par simple adjonction d'eau chaude devrait permettre d'avoir instantanément un café. 
+En Suisse, une équipe est créée avec Paul Dutoit et le chimiste Max Morgenthaler (1901-1980). Les premiers essais ne sont pas concluants et la direction générale demande de les cesser. Mais Max Morgenthaler poursuit ses recherches dans sa maison. Il trouve enfin la formule : le grain est torréfié, moulu et passé dans de grosses cafetières, puis déshydraté. On ajoute ensuite des hydrates de carbone sans goût pour faciliter le séchage.
 Le 1er avril 1938, le « Nescafé » est formulé : ce sera de la poudre et non des cubes. Il est fabriqué à Orbe. Cette même année, la société Nescafé est fondée. 
-Les débuts du café Nescafé
-Pendant la Seconde Guerre mondiale, Nescafé se trouve dans toutes les rations des soldats américains. En 1944 après le débarquement des Alliés, de nombreux GIs distribuent du café Nescafé aux habitants des villes françaises libérées. À la fin de la guerre, le café Nescafé est disponible à la vente.
-En 1952 Nescafé devient issu à 100 % de grains de café torréfiés sans additif. 
-Dans les années 1960, Nescafé adopte les arômes et la lyophilisation. En 1967 Nescafé introduit les granulés, avec Spécial Filtre.
 </t>
         </is>
       </c>
@@ -563,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nescaf%C3%A9</t>
+          <t>Nescafé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +593,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Informations économiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les débuts du café Nescafé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, Nescafé se trouve dans toutes les rations des soldats américains. En 1944 après le débarquement des Alliés, de nombreux GIs distribuent du café Nescafé aux habitants des villes françaises libérées. À la fin de la guerre, le café Nescafé est disponible à la vente.
+En 1952 Nescafé devient issu à 100 % de grains de café torréfiés sans additif. 
+Dans les années 1960, Nescafé adopte les arômes et la lyophilisation. En 1967 Nescafé introduit les granulés, avec Spécial Filtre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -589,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nescaf%C3%A9</t>
+          <t>Nescafé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +632,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Informations économiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nescafé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nescaf%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Procédé de fabrication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café Nescafé se présente sous la forme de granulé (le café Nescafé Spécial Filtre par exemple) ou bien de poudre (le café Nescafé Sélection par exemple). Ces deux formes proviennent de deux procédés différents, chacune ayant ses particularités en matière d’arômes et en taux de caféine.
 Si le principe de fabrication de Nescafé est simple, le choix des mélanges, le degré de torréfaction et la présentation sont plus complexes.
